--- a/Income/ICE_inc.xlsx
+++ b/Income/ICE_inc.xlsx
@@ -1780,16 +1780,16 @@
         <v>0.771</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.7787</v>
+        <v>0.8087</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.8202</v>
+        <v>0.8541</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.8739</v>
+        <v>0.9131</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.9288</v>
+        <v>0.976</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.9737</v>
@@ -1907,16 +1907,16 @@
         <v>0.3969</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4045</v>
+        <v>0.4201</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4436</v>
+        <v>0.4619</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4703</v>
+        <v>0.4914</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.489</v>
+        <v>0.5138</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.5232</v>
@@ -2034,16 +2034,16 @@
         <v>0.3619</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3769</v>
+        <v>0.3914</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4109</v>
+        <v>0.4278</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4379</v>
+        <v>0.4576</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4539</v>
+        <v>0.4769</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.505</v>
@@ -2161,16 +2161,16 @@
         <v>0.2734</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2829</v>
+        <v>0.2938</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3229</v>
+        <v>0.3362</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.3416</v>
+        <v>0.3569</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3536</v>
+        <v>0.3716</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4021</v>
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.387</v>
+        <v>0.3286</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.3233</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.3126</v>
+        <v>0.3247</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.3514</v>
+        <v>0.3659</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.3622</v>
+        <v>0.3785</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.4307</v>
+        <v>0.4525</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.4524</v>
@@ -3913,22 +3913,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4867</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.4952</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.5006</v>
+        <v>0.5199</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.5429</v>
+        <v>0.5653</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.5779</v>
+        <v>0.6038</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.6101</v>
+        <v>0.6411</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.6441</v>
@@ -4046,16 +4046,16 @@
         <v>0.377</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.3647</v>
+        <v>0.3787</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.3987</v>
+        <v>0.4152</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.4109</v>
+        <v>0.4293</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.4865</v>
+        <v>0.5111</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.5142</v>
